--- a/Multiknapsack/results/fixed_recourse/multicut/M20_N50_T0_a25_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M20_N50_T0_a25_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-112.68113442290272</v>
+        <v>-71.65924129199975</v>
       </c>
       <c r="C2">
-        <v>7.767140438</v>
+        <v>25.859401074</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H2">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-110.48340379129283</v>
+        <v>-69.4525623469496</v>
       </c>
       <c r="C3">
-        <v>0.05833693</v>
+        <v>3.241466568</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H3">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-114.51161653481327</v>
+        <v>-71.24685991078216</v>
       </c>
       <c r="C4">
-        <v>0.134634745</v>
+        <v>28.250229126</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H4">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-115.20278425765078</v>
+        <v>-71.65440618645337</v>
       </c>
       <c r="C5">
-        <v>0.055950378</v>
+        <v>12.416208294</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H5">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-112.76674326578738</v>
+        <v>-70.22823721822225</v>
       </c>
       <c r="C6">
-        <v>0.051776871</v>
+        <v>3.259004692</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H6">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-115.68865497375448</v>
+        <v>-71.84370845876089</v>
       </c>
       <c r="C7">
-        <v>0.084717464</v>
+        <v>10.915439388</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H7">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-107.27603826729671</v>
+        <v>-67.12860513254925</v>
       </c>
       <c r="C8">
-        <v>0.053266649</v>
+        <v>14.342945844</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H8">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-113.66017870121229</v>
+        <v>-71.56787798834289</v>
       </c>
       <c r="C9">
-        <v>0.073593757</v>
+        <v>1.532547922</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H9">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-113.61718064292607</v>
+        <v>-70.884938041055</v>
       </c>
       <c r="C10">
-        <v>0.08451777</v>
+        <v>4.897122523</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H10">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-109.19039307687441</v>
+        <v>-68.19423108211265</v>
       </c>
       <c r="C11">
-        <v>0.090341194</v>
+        <v>1.227735495</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H11">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.03367420488952637</v>
+        <v>0.031195961033447267</v>
       </c>
       <c r="E2">
-        <v>18.83644</v>
+        <v>41.2321</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-113.61718064292607</v>
+        <v>-70.884938041055</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.02473046204785156</v>
+        <v>4.67280581173706</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.022215590892822264</v>
+        <v>0.019166825015014648</v>
       </c>
       <c r="E2">
-        <v>18.44852</v>
+        <v>39.2631</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-109.19039307687441</v>
+        <v>-68.19423108211265</v>
       </c>
       <c r="C3">
-        <v>1.301474819784189e-14</v>
+        <v>0.09386039621602227</v>
       </c>
       <c r="D3">
-        <v>0.015561773807373048</v>
+        <v>1.0458227377525635</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.839377686076416</v>
+        <v>1.1170247866313476</v>
       </c>
       <c r="E2">
-        <v>17.49593</v>
+        <v>38.78663</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-112.68113442290272</v>
+        <v>-71.65924129199975</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.041979626255819115</v>
       </c>
       <c r="D3">
-        <v>0.038680866381469725</v>
+        <v>13.638601026383789</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.007396105634887695</v>
+        <v>0.012244432326538086</v>
       </c>
       <c r="E2">
-        <v>21.48354</v>
+        <v>40.41718</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-110.48340379129283</v>
+        <v>-69.4525623469496</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.03783807411897675</v>
       </c>
       <c r="D3">
-        <v>0.02547203372998047</v>
+        <v>3.0640088524993896</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.04191123082177734</v>
+        <v>0.014223903474975586</v>
       </c>
       <c r="E2">
-        <v>19.10115</v>
+        <v>38.10258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-114.51161653481327</v>
+        <v>-71.24685991078216</v>
       </c>
       <c r="C3">
-        <v>1.2409967779006313e-14</v>
+        <v>0.05347504931540876</v>
       </c>
       <c r="D3">
-        <v>0.03570790351904297</v>
+        <v>28.076176032256104</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.007390799611938476</v>
+        <v>0.01347002674633789</v>
       </c>
       <c r="E2">
-        <v>19.85589</v>
+        <v>40.53027</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-115.20278425765078</v>
+        <v>-71.65440618645337</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0011955544123725794</v>
       </c>
       <c r="D3">
-        <v>0.012214781894897461</v>
+        <v>12.289500115434814</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.009397128750732422</v>
+        <v>0.01768573743811035</v>
       </c>
       <c r="E2">
-        <v>15.69486</v>
+        <v>41.85082</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-112.76674326578738</v>
+        <v>-70.22823721822225</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.014349609205810547</v>
+        <v>3.0841074175334473</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.020701046352905275</v>
+        <v>0.022147351282714844</v>
       </c>
       <c r="E2">
-        <v>19.9321</v>
+        <v>40.92989</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-115.68865497375448</v>
+        <v>-71.84370845876089</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.02627871065270996</v>
+        <v>10.738329696549316</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.00733997537915039</v>
+        <v>0.027114733259887697</v>
       </c>
       <c r="E2">
-        <v>19.41134</v>
+        <v>36.76141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-107.27603826729671</v>
+        <v>-67.12860513254925</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.06488405414626831</v>
       </c>
       <c r="D3">
-        <v>0.020476027165771484</v>
+        <v>14.180363214760376</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02025867596057129</v>
+        <v>0.011153691938598633</v>
       </c>
       <c r="E2">
-        <v>16.03348</v>
+        <v>41.44521</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-113.66017870121229</v>
+        <v>-71.56787798834289</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.014902672757292004</v>
       </c>
       <c r="D3">
-        <v>0.02781193578967285</v>
+        <v>1.3956988863045654</v>
       </c>
       <c r="E3">
         <v>0.0</v>
